--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">pas de mots clés dans le titre de la page ni de langue pour la page</t>
   </si>
   <si>
+    <t xml:space="preserve">Rechercher des mots clés cohérents avec le sujet de la page et les utilisés comme titres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vitesse de chargement</t>
   </si>
   <si>
@@ -64,9 +67,21 @@
     <t xml:space="preserve">trop de liens morts ou inintéressants pour le site</t>
   </si>
   <si>
+    <t xml:space="preserve">Faire en sorte que les liens utilisé apporte un feed-back au site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des liens vers ses réseaux sociaux et/ou utilisé des partenariats avec d’autre site cohérent au sujet de la page</t>
+  </si>
+  <si>
     <t xml:space="preserve">Présences de style dans les balises HTML</t>
   </si>
   <si>
+    <t xml:space="preserve">le style de certains éléments est présent dans le code html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre le style des éléments dans un fichier css différent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Accessibilité</t>
   </si>
   <si>
@@ -76,10 +91,22 @@
     <t xml:space="preserve">contraste des couleurs et boutons pas bien identifiable</t>
   </si>
   <si>
+    <t xml:space="preserve">utiliser des contrastes suffisant afin que la lisibilité soit respecter </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.microsoft.com/design/inclusive/.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Robustesse</t>
+    <t xml:space="preserve">Images non adaptés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tailles poids et description des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img en jpeg plus leger ajouter une description cohérente (alt=…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redimmensionner les images</t>
   </si>
   <si>
     <t xml:space="preserve">wcag</t>
@@ -91,28 +118,34 @@
     <t xml:space="preserve">les titres de sections ne sont pas cohérents</t>
   </si>
   <si>
+    <t xml:space="preserve">Donner un titre cohérent au sujet de la page</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balises HTML utilisées</t>
   </si>
   <si>
     <t xml:space="preserve">Sémantique HTML du site non respecté</t>
   </si>
   <si>
+    <t xml:space="preserve">Utiliser des balises cohérentes pour dissocier les différents espaces de la page</t>
+  </si>
+  <si>
     <t xml:space="preserve">Responsive</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage mobile non adapté</t>
   </si>
   <si>
+    <t xml:space="preserve">Choisir des tailles d’écran pour lesquelles le style de la page doit être adapter et modifier les elements en conséquence </t>
+  </si>
+  <si>
     <t xml:space="preserve">Navigabilité du site</t>
   </si>
   <si>
-    <t xml:space="preserve">hierarchie des titres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images non adaptés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tailles poids et description des images</t>
+    <t xml:space="preserve">Hiérarchie des titres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser les balises de titre (h1,h2,h3…) dans l’ordre logique de la page</t>
   </si>
 </sst>
 </file>
@@ -223,29 +256,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -327,215 +364,251 @@
   </sheetPr>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="11.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="34.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="0" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="F24" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
